--- a/data/washington/gis_data/processed/SMA_coordinates.xlsx
+++ b/data/washington/gis_data/processed/SMA_coordinates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/domoic_acid_mgmt/data/washington/gis_data/processed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{028FE285-CE84-6548-A19D-F7594A476A25}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F3A3399-6B54-B441-A229-18F499EB72C3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22820" yWindow="6700" windowWidth="28040" windowHeight="17440" xr2:uid="{66498A1F-FE9F-824F-9C88-50555E7F5810}"/>
   </bookViews>
